--- a/DATA_EXCEL.xlsx
+++ b/DATA_EXCEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh Hung\source\repos\playwright01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6699C5CB-11B5-400F-8BE3-4F536D9BF1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F9E91A-1520-47BC-AD5D-2355CA31E3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{A3D10778-5BF9-44EB-B3E1-F011D1C9BA2E}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{A3D10778-5BF9-44EB-B3E1-F011D1C9BA2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Product1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>Page</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>PropName</t>
   </si>
 </sst>
 </file>
@@ -128,13 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,21 +452,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA761932-51EA-4E15-8287-4D71C0B9A748}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -476,11 +478,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -490,9 +492,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -502,11 +506,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -516,9 +520,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -528,10 +534,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -627,114 +629,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D760E09-412F-4E5A-A91E-8BCAADF738D2}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2"/>
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>41</v>
-      </c>
-      <c r="C6">
-        <v>42</v>
-      </c>
-      <c r="D6">
-        <v>43</v>
-      </c>
-      <c r="E6">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DATA_EXCEL.xlsx
+++ b/DATA_EXCEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh Hung\source\repos\playwright01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F9E91A-1520-47BC-AD5D-2355CA31E3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA4D3FF-CF36-4A1E-A56B-91AC62FB73B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{A3D10778-5BF9-44EB-B3E1-F011D1C9BA2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Page</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>PropName</t>
+  </si>
+  <si>
+    <t>newTodo</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +510,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>

--- a/DATA_EXCEL.xlsx
+++ b/DATA_EXCEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh Hung\source\repos\playwright01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA4D3FF-CF36-4A1E-A56B-91AC62FB73B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37BB24B-D9DD-460A-BA85-4F1F36447259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{A3D10778-5BF9-44EB-B3E1-F011D1C9BA2E}"/>
+    <workbookView xWindow="5415" yWindow="3375" windowWidth="17310" windowHeight="9135" xr2:uid="{A3D10778-5BF9-44EB-B3E1-F011D1C9BA2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Product1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Page</t>
   </si>
@@ -92,14 +92,38 @@
     <t>PropName</t>
   </si>
   <si>
-    <t>newTodo</t>
+    <t>emailAddress</t>
+  </si>
+  <si>
+    <t>exampleTextarea</t>
+  </si>
+  <si>
+    <t>hungndv@outlook.com</t>
+  </si>
+  <si>
+    <t>test test test</t>
+  </si>
+  <si>
+    <t>propValue1_5</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>thepass</t>
+  </si>
+  <si>
+    <t>multiFileInput</t>
+  </si>
+  <si>
+    <t>propValue1_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +133,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,16 +163,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA761932-51EA-4E15-8287-4D71C0B9A748}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -518,13 +553,13 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -533,11 +568,43 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="str">
+        <f ca="1">_xlfn.CONCAT("sample_", TEXT(NOW(), "yyyyMMdd\_hhmmss"), ".pdf")</f>
+        <v>sample_20240830_093153.pdf</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{C9FB87FC-6DA1-4867-B6C8-7B3F57984B23}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -570,7 +637,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -584,7 +651,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -596,7 +663,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -610,7 +677,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>

--- a/DATA_EXCEL.xlsx
+++ b/DATA_EXCEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh Hung\source\repos\playwright01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37BB24B-D9DD-460A-BA85-4F1F36447259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584560EF-D700-4E4C-BD41-6D243AEDF59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5415" yWindow="3375" windowWidth="17310" windowHeight="9135" xr2:uid="{A3D10778-5BF9-44EB-B3E1-F011D1C9BA2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Page</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>propValue1_6</t>
+  </si>
+  <si>
+    <t>sample.pdf</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,9 +598,8 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="str">
-        <f ca="1">_xlfn.CONCAT("sample_", TEXT(NOW(), "yyyyMMdd\_hhmmss"), ".pdf")</f>
-        <v>sample_20240830_093153.pdf</v>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_EXCEL.xlsx
+++ b/DATA_EXCEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh Hung\source\repos\playwright01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584560EF-D700-4E4C-BD41-6D243AEDF59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676630ED-AB4D-4C3F-A316-FDE40C7C55AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5415" yWindow="3375" windowWidth="17310" windowHeight="9135" xr2:uid="{A3D10778-5BF9-44EB-B3E1-F011D1C9BA2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Page</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>sample.pdf</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>propValue1_7</t>
   </si>
 </sst>
 </file>
@@ -491,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA761932-51EA-4E15-8287-4D71C0B9A748}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,6 +609,20 @@
       </c>
       <c r="D7" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_EXCEL.xlsx
+++ b/DATA_EXCEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh Hung\source\repos\playwright01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676630ED-AB4D-4C3F-A316-FDE40C7C55AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F85202D-BB88-4AFD-826D-28ABAFAF27C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5415" yWindow="3375" windowWidth="17310" windowHeight="9135" xr2:uid="{A3D10778-5BF9-44EB-B3E1-F011D1C9BA2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Page</t>
   </si>
@@ -129,6 +129,30 @@
   </si>
   <si>
     <t>propValue1_7</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>propValue1_8</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>defaultRadio</t>
+  </si>
+  <si>
+    <t>propValue1_9</t>
+  </si>
+  <si>
+    <t>defaultCheckedRadio</t>
+  </si>
+  <si>
+    <t>propValue1_10</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -500,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA761932-51EA-4E15-8287-4D71C0B9A748}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -623,6 +647,48 @@
       </c>
       <c r="D8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
